--- a/src/analysis_examples/circadb/results_jtk/cosinor_10532937_unc119b_.xlsx
+++ b/src/analysis_examples/circadb/results_jtk/cosinor_10532937_unc119b_.xlsx
@@ -589,35 +589,35 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2748169676320638, 0.3713317562941723]</t>
+          <t>[0.27374162074687114, 0.372407103179365]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>4.488187599349658e-12</v>
+        <v>6.821876397111737e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>4.488187599349658e-12</v>
+        <v>6.821876397111737e-12</v>
       </c>
       <c r="O2" t="n">
         <v>-1.094368612061309</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.2453160068283866, -0.9434212172942322]</t>
+          <t>[-1.2578949563923096, -0.9308422677303092]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>9.743317264110374e-13</v>
+        <v>4.520384067063787e-12</v>
       </c>
       <c r="R2" t="n">
-        <v>9.743317264110374e-13</v>
+        <v>4.520384067063787e-12</v>
       </c>
       <c r="S2" t="n">
         <v>0.4448102046615424</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.41904310691056956, 0.47057730241251516]</t>
+          <t>[0.41904768503749734, 0.4705727242855874]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -630,10 +630,10 @@
         <v>4.093093093093188</v>
       </c>
       <c r="X2" t="n">
-        <v>3.52852852852861</v>
+        <v>3.481481481481562</v>
       </c>
       <c r="Y2" t="n">
-        <v>4.657657657657766</v>
+        <v>4.704704704704813</v>
       </c>
     </row>
   </sheetData>
